--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_CaoAnhVuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang9\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang9\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="36" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -619,9 +619,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,9 +643,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,6 +685,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,31 +721,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1044,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1069,46 +1063,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1133,7 +1127,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1150,100 +1144,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1261,12 +1255,12 @@
       <c r="E6" s="39">
         <v>866192037823034</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="1"/>
@@ -1293,14 +1287,14 @@
       <c r="S6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="62"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1310,7 +1304,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="1"/>
@@ -1324,12 +1318,12 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="62"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1339,10 +1333,10 @@
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="40"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
@@ -1353,12 +1347,12 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="62"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1368,10 +1362,10 @@
       <c r="C9" s="37"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="1"/>
@@ -1382,12 +1376,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1397,10 +1391,10 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -1411,12 +1405,12 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1426,10 +1420,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1440,12 +1434,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1455,10 +1449,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1469,14 +1463,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1486,10 +1480,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1500,12 +1494,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="62"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1515,10 +1509,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1529,12 +1523,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="62"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1544,10 +1538,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1559,11 +1553,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="62"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1573,10 +1567,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1588,11 +1582,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="62"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1602,10 +1596,10 @@
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1617,9 +1611,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1629,10 +1623,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1655,11 +1649,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1671,13 +1665,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1690,7 +1684,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1722,7 +1716,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1754,7 +1748,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1786,7 +1780,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1813,7 +1807,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1840,7 +1834,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1852,13 +1846,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="63" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1871,7 +1865,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1903,7 +1897,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1935,7 +1929,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -1967,7 +1961,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -1999,7 +1993,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2031,7 +2025,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2063,7 +2057,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2095,7 +2089,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2127,7 +2121,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2159,7 +2153,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2191,7 +2185,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2223,7 +2217,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2255,7 +2249,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2282,7 +2276,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2309,7 +2303,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2341,7 +2335,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2373,7 +2367,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2400,7 +2394,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2427,7 +2421,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2463,7 +2457,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2502,7 +2496,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2541,7 +2535,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2580,7 +2574,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2622,7 +2616,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2634,9 +2628,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,12 +2639,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2659,12 +2653,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2678,7 +2672,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2690,9 +2684,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2700,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2718,9 +2712,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2728,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2746,9 +2740,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2762,7 +2756,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2774,9 +2768,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2784,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2802,9 +2796,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,6 +2813,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2830,13 +2831,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2847,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C10"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2855,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="61" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -2880,46 +2874,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="57"/>
+      <c r="I2" s="55"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -2944,7 +2938,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -2961,100 +2955,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3072,18 +3066,18 @@
       <c r="E6" s="39">
         <v>868183034543285</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="58" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="40" t="s">
         <v>75</v>
       </c>
@@ -3104,14 +3098,14 @@
         <v>36</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="52"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3129,12 +3123,12 @@
       <c r="E7" s="39">
         <v>868183037805871</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3163,12 +3157,12 @@
         <v>31</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3186,14 +3180,14 @@
       <c r="E8" s="39">
         <v>868183034650254</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3220,12 +3214,12 @@
         <v>36</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3243,12 +3237,12 @@
       <c r="E9" s="39">
         <v>868183034557749</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H9" s="40"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>73</v>
       </c>
       <c r="J9" s="40"/>
@@ -3275,12 +3269,12 @@
         <v>24</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3298,14 +3292,14 @@
       <c r="E10" s="39">
         <v>868183034600481</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="58" t="s">
         <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3334,12 +3328,12 @@
         <v>30</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3349,10 +3343,10 @@
       <c r="C11" s="37"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -3363,12 +3357,12 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3378,10 +3372,10 @@
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="55"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -3392,14 +3386,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3409,10 +3403,10 @@
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3423,12 +3417,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3438,10 +3432,10 @@
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="55"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="38"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3452,12 +3446,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3467,10 +3461,10 @@
       <c r="C15" s="37"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -3482,11 +3476,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3496,10 +3490,10 @@
       <c r="C16" s="37"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -3511,11 +3505,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3528,7 +3522,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="40"/>
@@ -3540,9 +3534,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="52"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3552,10 +3546,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3578,11 +3572,11 @@
       <c r="B19" s="37"/>
       <c r="C19" s="9"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3594,13 +3588,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3613,7 +3607,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3645,7 +3639,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3677,7 +3671,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -3709,7 +3703,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -3736,7 +3730,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3763,7 +3757,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="60"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -3775,13 +3769,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -3794,7 +3788,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="60"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3826,7 +3820,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="60"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -3858,7 +3852,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="60"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -3890,7 +3884,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="60"/>
+      <c r="I29" s="58"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -3922,7 +3916,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="60"/>
+      <c r="I30" s="58"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3954,7 +3948,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="60"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3986,7 +3980,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="60"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -4018,7 +4012,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="60"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -4050,7 +4044,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="60"/>
+      <c r="I34" s="58"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -4082,7 +4076,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="60"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -4114,7 +4108,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="60"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -4146,7 +4140,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="60"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -4178,7 +4172,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="60"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4205,7 +4199,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="60"/>
+      <c r="I39" s="58"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4232,7 +4226,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4264,7 +4258,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="60"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4296,7 +4290,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="60"/>
+      <c r="I42" s="58"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4323,7 +4317,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="60"/>
+      <c r="I43" s="58"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4350,7 +4344,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="60"/>
+      <c r="I44" s="58"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4386,7 +4380,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="60"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4425,7 +4419,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="60"/>
+      <c r="I46" s="58"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4464,7 +4458,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="60"/>
+      <c r="I47" s="58"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4503,7 +4497,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="60"/>
+      <c r="I48" s="58"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4545,7 +4539,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="60"/>
+      <c r="I49" s="58"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4557,9 +4551,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,12 +4562,12 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="61"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -4582,12 +4576,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,7 +4595,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="60"/>
+      <c r="I51" s="58"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4613,9 +4607,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,7 +4623,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -4641,9 +4635,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4657,7 +4651,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="60"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -4669,9 +4663,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4679,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -4697,9 +4691,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4713,7 +4707,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -4725,9 +4719,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4742,6 +4736,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4753,13 +4754,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4770,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4803,43 +4797,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="47"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4884,276 +4878,440 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="48"/>
+      <c r="W4" s="47"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="64"/>
+      <c r="K5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="48"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="47"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866192037823034</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
+      <c r="I6" s="58" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="42"/>
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="43"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="B7" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183034543285</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="I7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="43"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="B8" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>868183037805871</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="I8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="43"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="B9" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183034650254</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="43"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
+      <c r="B10" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183034557749</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="49" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="B11" s="37">
+        <v>44454</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44461</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183034600481</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="43"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5177,14 +5335,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="42"/>
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="43"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5208,12 +5366,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="43"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5237,12 +5395,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="43"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5267,11 +5425,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="43"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5296,11 +5454,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="43"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5325,9 +5483,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="42"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="42"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5379,13 +5537,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="43" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="49"/>
+      <c r="W19" s="48"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5415,7 +5573,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5447,7 +5605,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5560,13 +5718,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="43" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="49"/>
+      <c r="W25" s="48"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -5692,7 +5850,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -5756,7 +5914,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5852,7 +6010,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -5884,7 +6042,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -5948,7 +6106,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6342,9 +6500,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6353,10 +6511,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6367,12 +6525,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="45"/>
+      <c r="R50" s="44"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6398,9 +6556,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6426,9 +6584,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6454,9 +6612,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6482,9 +6640,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,9 +6668,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="46"/>
-      <c r="W55" s="46"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,6 +6685,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6538,13 +6703,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
